--- a/2020_2016/Result.xlsx
+++ b/2020_2016/Result.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenwsong/Documents/GitHub/share/2020_2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75F0401-36FB-6E44-A2BB-3331D89D9D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF027CDB-E4DE-024F-9EBF-B367A49659C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20240" xr2:uid="{B66A8387-6377-C04E-936D-9EE5BB02271A}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20240" activeTab="2" xr2:uid="{B66A8387-6377-C04E-936D-9EE5BB02271A}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="72">
   <si>
     <t>PUBLISHER * STORYTYPE</t>
   </si>
@@ -243,13 +245,22 @@
   </si>
   <si>
     <t>p &lt; .001</t>
+  </si>
+  <si>
+    <t>RQ: How differently did CNN and FOX report news for the 2016 election?</t>
+  </si>
+  <si>
+    <t>CNN vs FOX, 2016</t>
+  </si>
+  <si>
+    <t>;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -265,6 +276,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -274,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -282,13 +314,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -307,8 +355,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7488A926-5D61-574E-8F3B-09947775B1A3}" name="Table1" displayName="Table1" ref="A4:C13" totalsRowShown="0">
-  <autoFilter ref="A4:C13" xr:uid="{7488A926-5D61-574E-8F3B-09947775B1A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7488A926-5D61-574E-8F3B-09947775B1A3}" name="Table1" displayName="Table1" ref="A19:C28" totalsRowShown="0">
+  <autoFilter ref="A19:C28" xr:uid="{7488A926-5D61-574E-8F3B-09947775B1A3}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{25014208-2D46-4242-A56E-E2E1440D277F}" name="CNN vs FOX, 2020"/>
     <tableColumn id="2" xr3:uid="{2DE97471-CC30-C241-B619-B104300A8BAC}" name="χ2"/>
@@ -318,9 +366,129 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{7B185995-51EA-8F4C-BF6A-FF7116125EAB}" name="Table611" displayName="Table611" ref="E3:G15" totalsRowShown="0">
+  <autoFilter ref="E3:G15" xr:uid="{7B185995-51EA-8F4C-BF6A-FF7116125EAB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3F08145F-D98E-C947-A621-A6FE409CA737}" name="CNN vs FOX, 2016"/>
+    <tableColumn id="2" xr3:uid="{C1777304-622E-3C4D-A91A-8BDAFB54A8F5}" name="χ2"/>
+    <tableColumn id="3" xr3:uid="{9D8D05FD-5237-5B49-874B-EE831321901B}" name="Cramer's V"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9EC6EB78-773D-2B48-88C9-A3EB975ED64D}" name="Table112" displayName="Table112" ref="E15:G24" totalsRowShown="0">
+  <autoFilter ref="E15:G24" xr:uid="{9EC6EB78-773D-2B48-88C9-A3EB975ED64D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3D2B9E1A-5A16-BB47-8BF4-150B469AED7B}" name="CNN vs FOX, 2020"/>
+    <tableColumn id="2" xr3:uid="{D058A057-A4E8-2548-827F-E3E2117B0AB0}" name="χ2"/>
+    <tableColumn id="3" xr3:uid="{89A4B008-8629-4446-9CBB-9BBF0E8DB389}" name="Cramer's V"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{DA3CB1EE-D4EB-604E-9B15-FD914AFEBFAA}" name="Table313" displayName="Table313" ref="E3:G12" totalsRowShown="0">
+  <autoFilter ref="E3:G12" xr:uid="{DA3CB1EE-D4EB-604E-9B15-FD914AFEBFAA}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5857ABC0-345F-AA4C-A0FE-F0BE6F611567}" name="2016 vs 2020, CNN"/>
+    <tableColumn id="2" xr3:uid="{1E258DEA-4114-414A-91B7-EACDA4E5DE51}" name="χ2"/>
+    <tableColumn id="3" xr3:uid="{68446CA7-EF5E-1542-803E-85D41717CCF6}" name="Cramer's V"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{083AD323-2BC5-5748-9321-7C64ABDA3FC1}" name="Table414" displayName="Table414" ref="I3:K12" totalsRowShown="0">
+  <autoFilter ref="I3:K12" xr:uid="{083AD323-2BC5-5748-9321-7C64ABDA3FC1}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F5E87635-6790-DD4F-960A-34EC3E4EEB56}" name="2016 vs 2020, FOX"/>
+    <tableColumn id="2" xr3:uid="{FA3AB312-6EE4-8443-BAFE-2613D75A9F2F}" name="χ2"/>
+    <tableColumn id="3" xr3:uid="{3C94CED5-4E0C-9147-8831-7E9CE75DFC46}" name="Cramer's V"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{AB3D6D07-C621-944E-A55C-2639984904D2}" name="Table515" displayName="Table515" ref="A64:C73" totalsRowShown="0">
+  <autoFilter ref="A64:C73" xr:uid="{AB3D6D07-C621-944E-A55C-2639984904D2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{12271716-7BC9-574E-B7E5-B6D9780E89DA}" name="Fox2016 vs CNN2016 vs Fox2020 vs CNN2020"/>
+    <tableColumn id="2" xr3:uid="{76D06D5C-F250-2A4B-82FA-9E67AECA0761}" name="χ2"/>
+    <tableColumn id="3" xr3:uid="{3F113FAA-C944-D846-927F-DD1CBA6F2B74}" name="Cramer's V"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{145160B9-5A09-624E-A321-D9962041530D}" name="Table1320" displayName="Table1320" ref="A3:C12" totalsRowShown="0">
+  <autoFilter ref="A3:C12" xr:uid="{145160B9-5A09-624E-A321-D9962041530D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C72FFBF8-FDBC-524B-95B5-B9163C6283BF}" name="CNN vs FOX, 2016"/>
+    <tableColumn id="2" xr3:uid="{942451E3-5A50-9B47-BBDE-2B23F2E03534}" name="χ2"/>
+    <tableColumn id="3" xr3:uid="{7078E2E7-B2DB-3244-9B30-559FA39E3C01}" name="Cramer's V"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{5091412C-ED18-C745-9CEC-F6FEC6B5CEBB}" name="Table622" displayName="Table622" ref="A18:C30" totalsRowShown="0">
+  <autoFilter ref="A18:C30" xr:uid="{5091412C-ED18-C745-9CEC-F6FEC6B5CEBB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{23D8F865-3A3B-A64B-8B52-B59E53942875}" name="CNN vs FOX, 2020"/>
+    <tableColumn id="2" xr3:uid="{F6FD5502-026E-4741-A358-8C6F0A5AE625}" name="χ2"/>
+    <tableColumn id="3" xr3:uid="{C7323906-9873-D349-B0DD-4441DED6C9AA}" name="Cramer's V"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{44AEA561-0095-334F-992A-A573C4865DE4}" name="Table723" displayName="Table723" ref="A33:C45" totalsRowShown="0">
+  <autoFilter ref="A33:C45" xr:uid="{44AEA561-0095-334F-992A-A573C4865DE4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D5780A00-45E4-B94A-A0D1-B23FBF3E5861}" name="2016 vs 2020, CNN"/>
+    <tableColumn id="2" xr3:uid="{BC90CEAC-7FC5-2B42-B9BD-100ABEEF4042}" name="χ2"/>
+    <tableColumn id="3" xr3:uid="{A1E57F6A-329D-0248-837F-4A4B481BD123}" name="Cramer's V"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{DE9576DF-ABAC-F24C-AC97-298ACD78F469}" name="Table824" displayName="Table824" ref="A48:C60" totalsRowShown="0">
+  <autoFilter ref="A48:C60" xr:uid="{DE9576DF-ABAC-F24C-AC97-298ACD78F469}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F7C7CEC4-E771-EF48-812E-6F692CEE0D55}" name="2016 vs 2020, FOX"/>
+    <tableColumn id="2" xr3:uid="{5A91F99C-AE5F-384C-9B94-DCE547C4EA7B}" name="χ2"/>
+    <tableColumn id="3" xr3:uid="{5EEE5B5C-4750-EC44-B9EB-4014631D9CC5}" name="Cramer's V"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{0BCCB0D3-4CF6-2748-A295-963A25485847}" name="Table61125" displayName="Table61125" ref="A2:C14" totalsRowShown="0">
+  <autoFilter ref="A2:C14" xr:uid="{0BCCB0D3-4CF6-2748-A295-963A25485847}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{250BCE90-8846-624F-927D-9F957D95E460}" name="CNN vs FOX, 2016"/>
+    <tableColumn id="2" xr3:uid="{A9798030-7756-834C-A431-0DBBBD08279D}" name="χ2"/>
+    <tableColumn id="3" xr3:uid="{EABA5A32-C67D-9E40-A506-2D37F82F1C5B}" name="Cramer's V"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{85848698-A326-C24A-A47A-2E49E68840A5}" name="Table3" displayName="Table3" ref="A19:C28" totalsRowShown="0">
-  <autoFilter ref="A19:C28" xr:uid="{85848698-A326-C24A-A47A-2E49E68840A5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{85848698-A326-C24A-A47A-2E49E68840A5}" name="Table3" displayName="Table3" ref="A34:C43" totalsRowShown="0">
+  <autoFilter ref="A34:C43" xr:uid="{85848698-A326-C24A-A47A-2E49E68840A5}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{6EBE8EDB-530D-DF41-874D-F26D2DF45D30}" name="2016 vs 2020, CNN"/>
     <tableColumn id="2" xr3:uid="{E7230B40-23C6-EE4E-85B1-57CC42E657E1}" name="χ2"/>
@@ -331,8 +499,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A2FA7FD5-37FE-234C-B103-186D9C2E31EA}" name="Table4" displayName="Table4" ref="A34:C43" totalsRowShown="0">
-  <autoFilter ref="A34:C43" xr:uid="{A2FA7FD5-37FE-234C-B103-186D9C2E31EA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A2FA7FD5-37FE-234C-B103-186D9C2E31EA}" name="Table4" displayName="Table4" ref="A49:C58" totalsRowShown="0">
+  <autoFilter ref="A49:C58" xr:uid="{A2FA7FD5-37FE-234C-B103-186D9C2E31EA}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{47895BBA-6562-1C40-B137-8B07DB0405A0}" name="2016 vs 2020, FOX"/>
     <tableColumn id="2" xr3:uid="{3B9859DC-D7D6-EA49-A16E-158125FFE7A0}" name="χ2"/>
@@ -343,8 +511,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1B10CF06-59AD-8943-9644-E1856DF2CE5C}" name="Table5" displayName="Table5" ref="A49:C58" totalsRowShown="0">
-  <autoFilter ref="A49:C58" xr:uid="{1B10CF06-59AD-8943-9644-E1856DF2CE5C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1B10CF06-59AD-8943-9644-E1856DF2CE5C}" name="Table5" displayName="Table5" ref="A64:C73" totalsRowShown="0">
+  <autoFilter ref="A64:C73" xr:uid="{1B10CF06-59AD-8943-9644-E1856DF2CE5C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{56F94D42-E809-8840-96A1-5353826350EC}" name="Fox2016 vs CNN2016 vs Fox2020 vs CNN2020"/>
     <tableColumn id="2" xr3:uid="{C9EA2392-D681-FA48-A9D0-743E63ACB499}" name="χ2"/>
@@ -355,8 +523,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DF3D5AB8-91DE-A64A-8FD6-A2DBCDB58CCB}" name="Table6" displayName="Table6" ref="E4:G16" totalsRowShown="0">
-  <autoFilter ref="E4:G16" xr:uid="{DF3D5AB8-91DE-A64A-8FD6-A2DBCDB58CCB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DF3D5AB8-91DE-A64A-8FD6-A2DBCDB58CCB}" name="Table6" displayName="Table6" ref="E19:G31" totalsRowShown="0">
+  <autoFilter ref="E19:G31" xr:uid="{DF3D5AB8-91DE-A64A-8FD6-A2DBCDB58CCB}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{81AB4FD3-3C86-9745-9FF6-9C9C41338891}" name="CNN vs FOX, 2020"/>
     <tableColumn id="2" xr3:uid="{B88780C4-A749-FC4A-BCE8-A2CB41988B0F}" name="χ2"/>
@@ -367,8 +535,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CC66A2E5-D5D0-ED4D-954E-AD6D375099FE}" name="Table7" displayName="Table7" ref="E19:G31" totalsRowShown="0">
-  <autoFilter ref="E19:G31" xr:uid="{CC66A2E5-D5D0-ED4D-954E-AD6D375099FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CC66A2E5-D5D0-ED4D-954E-AD6D375099FE}" name="Table7" displayName="Table7" ref="E34:G46" totalsRowShown="0">
+  <autoFilter ref="E34:G46" xr:uid="{CC66A2E5-D5D0-ED4D-954E-AD6D375099FE}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{6BB592E7-2DDA-014D-A009-734304377A3F}" name="2016 vs 2020, CNN"/>
     <tableColumn id="2" xr3:uid="{5A3BAD1B-2AA5-4147-8FC0-AA478D756D85}" name="χ2"/>
@@ -379,8 +547,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{72684F03-C3BA-A84D-970B-7533C2213F20}" name="Table8" displayName="Table8" ref="E34:G46" totalsRowShown="0">
-  <autoFilter ref="E34:G46" xr:uid="{72684F03-C3BA-A84D-970B-7533C2213F20}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{72684F03-C3BA-A84D-970B-7533C2213F20}" name="Table8" displayName="Table8" ref="E49:G61" totalsRowShown="0">
+  <autoFilter ref="E49:G61" xr:uid="{72684F03-C3BA-A84D-970B-7533C2213F20}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7ED7B4E0-4EA0-CE4F-865A-A07F03EFB82A}" name="2016 vs 2020, FOX"/>
     <tableColumn id="2" xr3:uid="{36E4A6FC-FDF0-9041-848F-D3C1054CB464}" name="χ2"/>
@@ -391,12 +559,24 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0ECC690E-3E2D-3544-B2E1-FB9AD8B37711}" name="Table9" displayName="Table9" ref="E49:G61" totalsRowShown="0">
-  <autoFilter ref="E49:G61" xr:uid="{0ECC690E-3E2D-3544-B2E1-FB9AD8B37711}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0ECC690E-3E2D-3544-B2E1-FB9AD8B37711}" name="Table9" displayName="Table9" ref="E64:G76" totalsRowShown="0">
+  <autoFilter ref="E64:G76" xr:uid="{0ECC690E-3E2D-3544-B2E1-FB9AD8B37711}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{60DBBD50-9F6A-7843-97FA-0974A9EC6272}" name="Fox2016 vs CNN2016 vs Fox2020 vs CNN2020"/>
     <tableColumn id="2" xr3:uid="{3470201A-5D33-8040-ADEE-70FABA2975EE}" name="χ2"/>
     <tableColumn id="3" xr3:uid="{00F67477-281A-3F43-A4B0-F4AA23D779EC}" name="Cramer's V"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82338EE9-9F5E-FC4D-A307-9D55A2FB2248}" name="Table13" displayName="Table13" ref="A3:C12" totalsRowShown="0">
+  <autoFilter ref="A3:C12" xr:uid="{82338EE9-9F5E-FC4D-A307-9D55A2FB2248}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{ACCBEFB4-FB0B-8C48-A0D0-552AD4A8E6A5}" name="CNN vs FOX, 2016"/>
+    <tableColumn id="2" xr3:uid="{81BE6145-6CE0-5C45-B260-AD5CEB6AE1EC}" name="χ2"/>
+    <tableColumn id="3" xr3:uid="{510E611E-F897-1D45-A42B-65EB4CB9E966}" name="Cramer's V"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -699,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D1E171-0D71-B84D-B5F3-4B4D7697B500}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,54 +902,76 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>62</v>
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I5" t="s">
@@ -781,22 +983,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I6" t="s">
         <v>6</v>
@@ -807,22 +1009,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" t="s">
         <v>7</v>
@@ -833,7 +1035,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -842,47 +1044,47 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -893,27 +1095,27 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -922,27 +1124,18 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
@@ -953,10 +1146,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
         <v>6</v>
@@ -964,7 +1157,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -973,28 +1166,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -1003,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
         <v>4</v>
@@ -1014,27 +1200,27 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1046,35 +1232,35 @@
         <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1094,7 +1280,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1106,35 +1292,35 @@
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
         <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1146,35 +1332,35 @@
         <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
         <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1197,10 +1383,10 @@
         <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1208,10 +1394,10 @@
         <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1227,15 +1413,15 @@
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -1244,7 +1430,7 @@
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
         <v>4</v>
@@ -1258,19 +1444,19 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
         <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1298,19 +1484,19 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
         <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1347,10 +1533,10 @@
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1387,10 +1573,10 @@
         <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1407,10 +1593,10 @@
         <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1418,19 +1604,19 @@
         <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
         <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1449,10 +1635,10 @@
         <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1468,15 +1654,20 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
@@ -1485,7 +1676,7 @@
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F49" t="s">
         <v>4</v>
@@ -1496,16 +1687,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F50" t="s">
         <v>8</v>
@@ -1516,7 +1707,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -1525,18 +1716,18 @@
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1545,18 +1736,18 @@
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -1565,7 +1756,7 @@
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -1576,27 +1767,27 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -1605,18 +1796,18 @@
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -1625,58 +1816,58 @@
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
         <v>7</v>
@@ -1687,7 +1878,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
         <v>7</v>
@@ -1698,19 +1889,260 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>51</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>55</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>56</v>
+      </c>
+      <c r="F73" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
         <v>59</v>
       </c>
-      <c r="F61" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="8">
+  <tableParts count="10">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -1719,6 +2151,1216 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01D1492-162C-C247-AB4A-2A0288781425}">
+  <dimension ref="A1:K73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="5">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2AD328-DA7D-9341-AB59-1F80476DC1D0}">
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="62.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2020_2016/Result.xlsx
+++ b/2020_2016/Result.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenwsong/Documents/GitHub/share/2020_2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF027CDB-E4DE-024F-9EBF-B367A49659C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F4F405-2D92-8141-B264-48DF7FCBEFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20240" activeTab="2" xr2:uid="{B66A8387-6377-C04E-936D-9EE5BB02271A}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="17100" windowHeight="20240" activeTab="6" xr2:uid="{B66A8387-6377-C04E-936D-9EE5BB02271A}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Story" sheetId="2" r:id="rId2"/>
+    <sheet name="Tweet" sheetId="3" r:id="rId3"/>
+    <sheet name="Table3" sheetId="4" r:id="rId4"/>
+    <sheet name="Table4" sheetId="5" r:id="rId5"/>
+    <sheet name="Table 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Table 7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="123">
   <si>
     <t>PUBLISHER * STORYTYPE</t>
   </si>
@@ -254,6 +258,159 @@
   </si>
   <si>
     <t>;</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>editorial</t>
+  </si>
+  <si>
+    <t>hard news</t>
+  </si>
+  <si>
+    <t>soft news</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>campaign event or info</t>
+  </si>
+  <si>
+    <t>character traits</t>
+  </si>
+  <si>
+    <t>covid</t>
+  </si>
+  <si>
+    <t>endorsement</t>
+  </si>
+  <si>
+    <t>horserace</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>policy issue</t>
+  </si>
+  <si>
+    <t>scandal</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Story Topic</t>
+  </si>
+  <si>
+    <t>Story Type</t>
+  </si>
+  <si>
+    <t>Emotional Tone</t>
+  </si>
+  <si>
+    <t>Sensationalism</t>
+  </si>
+  <si>
+    <t>conflict</t>
+  </si>
+  <si>
+    <t>economic</t>
+  </si>
+  <si>
+    <t>human interest</t>
+  </si>
+  <si>
+    <t>morality</t>
+  </si>
+  <si>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t>call to action</t>
+  </si>
+  <si>
+    <t>cited</t>
+  </si>
+  <si>
+    <t>cited_linked</t>
+  </si>
+  <si>
+    <t>cited_paraphrased</t>
+  </si>
+  <si>
+    <t>embedded</t>
+  </si>
+  <si>
+    <t>embedded_cited</t>
+  </si>
+  <si>
+    <t>embedded_paraphrased</t>
+  </si>
+  <si>
+    <t>linked</t>
+  </si>
+  <si>
+    <t>paraphrased</t>
+  </si>
+  <si>
+    <t>paraphrased_linked</t>
+  </si>
+  <si>
+    <t>illustration</t>
+  </si>
+  <si>
+    <t>non-primary source</t>
+  </si>
+  <si>
+    <t>trigger</t>
+  </si>
+  <si>
+    <t>amplifies the tweet</t>
+  </si>
+  <si>
+    <t>ctiticizes the tweet</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>Twitter Topic</t>
+  </si>
+  <si>
+    <t>Twitter Presentation</t>
+  </si>
+  <si>
+    <t>Generic Frame</t>
+  </si>
+  <si>
+    <t>Tweet's Role in Story</t>
+  </si>
+  <si>
+    <t>Story's Role in Tweet</t>
+  </si>
+  <si>
+    <t>Tweet Presentation</t>
   </si>
 </sst>
 </file>
@@ -335,8 +492,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,8 +596,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{5091412C-ED18-C745-9CEC-F6FEC6B5CEBB}" name="Table622" displayName="Table622" ref="A18:C30" totalsRowShown="0">
-  <autoFilter ref="A18:C30" xr:uid="{5091412C-ED18-C745-9CEC-F6FEC6B5CEBB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{5091412C-ED18-C745-9CEC-F6FEC6B5CEBB}" name="Table622" displayName="Table622" ref="J2:L14" totalsRowShown="0">
+  <autoFilter ref="J2:L14" xr:uid="{5091412C-ED18-C745-9CEC-F6FEC6B5CEBB}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{23D8F865-3A3B-A64B-8B52-B59E53942875}" name="CNN vs FOX, 2020"/>
     <tableColumn id="2" xr3:uid="{F6FD5502-026E-4741-A358-8C6F0A5AE625}" name="χ2"/>
@@ -451,8 +608,8 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{44AEA561-0095-334F-992A-A573C4865DE4}" name="Table723" displayName="Table723" ref="A33:C45" totalsRowShown="0">
-  <autoFilter ref="A33:C45" xr:uid="{44AEA561-0095-334F-992A-A573C4865DE4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{44AEA561-0095-334F-992A-A573C4865DE4}" name="Table723" displayName="Table723" ref="D2:F14" totalsRowShown="0">
+  <autoFilter ref="D2:F14" xr:uid="{44AEA561-0095-334F-992A-A573C4865DE4}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D5780A00-45E4-B94A-A0D1-B23FBF3E5861}" name="2016 vs 2020, CNN"/>
     <tableColumn id="2" xr3:uid="{BC90CEAC-7FC5-2B42-B9BD-100ABEEF4042}" name="χ2"/>
@@ -463,8 +620,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{DE9576DF-ABAC-F24C-AC97-298ACD78F469}" name="Table824" displayName="Table824" ref="A48:C60" totalsRowShown="0">
-  <autoFilter ref="A48:C60" xr:uid="{DE9576DF-ABAC-F24C-AC97-298ACD78F469}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{DE9576DF-ABAC-F24C-AC97-298ACD78F469}" name="Table824" displayName="Table824" ref="G2:I14" totalsRowShown="0">
+  <autoFilter ref="G2:I14" xr:uid="{DE9576DF-ABAC-F24C-AC97-298ACD78F469}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F7C7CEC4-E771-EF48-812E-6F692CEE0D55}" name="2016 vs 2020, FOX"/>
     <tableColumn id="2" xr3:uid="{5A91F99C-AE5F-384C-9B94-DCE547C4EA7B}" name="χ2"/>
@@ -882,7 +1039,7 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G61"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2162,7 +2319,7 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2237,13 +2394,13 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I4" t="s">
@@ -2266,22 +2423,22 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="J5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2304,13 +2461,13 @@
       <c r="G6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="6" t="s">
+      <c r="J6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2353,22 +2510,22 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="F8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="6" t="s">
+      <c r="J8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2430,32 +2587,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2469,13 +2626,13 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I12" t="s">
@@ -2740,25 +2897,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2AD328-DA7D-9341-AB59-1F80476DC1D0}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -2768,594 +2940,496 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -3363,4 +3437,1091 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C569653-1E88-3447-9799-0FE2E640D444}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6">
+        <v>2016</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="6">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="6">
+        <v>78</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="6">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="6">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="6">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="6">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="6">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="6">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="6">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="6">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="6">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="6">
+        <v>94</v>
+      </c>
+      <c r="C21" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="6">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="6">
+        <v>79</v>
+      </c>
+      <c r="C25" s="6">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624DCB50-8BC2-EE42-B8CA-346DF9A765B1}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6">
+        <v>2016</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="6">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="6">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="6">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="6">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="6">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="6">
+        <v>83</v>
+      </c>
+      <c r="C12" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="6">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="6">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>3</v>
+      </c>
+      <c r="B17" s="6">
+        <v>11</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="6">
+        <v>84</v>
+      </c>
+      <c r="C18" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="6">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD32B87-88C8-AA4F-92E4-7BDDC211DF3E}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>2016</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19">
+        <v>28.999999999999901</v>
+      </c>
+      <c r="C19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25">
+        <v>73</v>
+      </c>
+      <c r="C25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32">
+        <v>79</v>
+      </c>
+      <c r="C32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C025BF-418D-3C41-90DC-4C476FEE0423}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>2016</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16">
+        <v>97</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2020_2016/Result.xlsx
+++ b/2020_2016/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenwsong/Documents/GitHub/share/2020_2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F4F405-2D92-8141-B264-48DF7FCBEFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1483F49-97F3-7144-8583-886576487B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="17100" windowHeight="20240" activeTab="6" xr2:uid="{B66A8387-6377-C04E-936D-9EE5BB02271A}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="137">
   <si>
     <t>PUBLISHER * STORYTYPE</t>
   </si>
@@ -269,15 +269,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>editorial</t>
-  </si>
-  <si>
-    <t>hard news</t>
-  </si>
-  <si>
-    <t>soft news</t>
-  </si>
-  <si>
     <t>attack</t>
   </si>
   <si>
@@ -314,12 +305,6 @@
     <t>positive</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Story Topic</t>
   </si>
   <si>
@@ -411,6 +396,63 @@
   </si>
   <si>
     <t>Tweet Presentation</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Breaking News</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Hard News</t>
+  </si>
+  <si>
+    <t>Soft News</t>
+  </si>
+  <si>
+    <t>Editorial</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Campaign Event or Info</t>
+  </si>
+  <si>
+    <t>Character Traits</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>Endorsement</t>
+  </si>
+  <si>
+    <t>Horserace</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Policy Issue</t>
+  </si>
+  <si>
+    <t>Scandal</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -3444,10 +3486,13 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection sqref="A1:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
@@ -3460,14 +3505,14 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="B3" s="6">
         <v>8</v>
@@ -3478,7 +3523,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="B4" s="6">
         <v>78</v>
@@ -3489,7 +3534,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="B5" s="6">
         <v>14</v>
@@ -3499,37 +3544,37 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>9</v>
+      <c r="A6" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
       </c>
       <c r="C6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>4</v>
+      <c r="A7" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
       </c>
       <c r="C7" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B9" s="6">
         <v>27</v>
@@ -3540,7 +3585,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="B10" s="6">
         <v>10</v>
@@ -3551,7 +3596,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B11" s="6">
         <v>8</v>
@@ -3562,7 +3607,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B12" s="6">
         <v>0</v>
@@ -3573,7 +3618,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B13" s="6">
         <v>3</v>
@@ -3584,7 +3629,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B14" s="6">
         <v>5</v>
@@ -3595,7 +3640,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="B15" s="6">
         <v>11</v>
@@ -3606,7 +3651,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="B16" s="6">
         <v>8</v>
@@ -3617,7 +3662,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="B17" s="6">
         <v>19</v>
@@ -3628,7 +3673,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="B18" s="6">
         <v>10</v>
@@ -3639,14 +3684,14 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="B20" s="6">
         <v>2</v>
@@ -3657,7 +3702,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="B21" s="6">
         <v>94</v>
@@ -3667,8 +3712,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>3</v>
+      <c r="A22" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="B22" s="6">
         <v>5</v>
@@ -3679,14 +3724,14 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B24" s="6">
         <v>21</v>
@@ -3697,7 +3742,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="B25" s="6">
         <v>79</v>
@@ -3732,14 +3777,14 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" s="6">
         <v>37</v>
@@ -3750,7 +3795,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" s="6">
         <v>32</v>
@@ -3761,7 +3806,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -3772,7 +3817,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -3783,7 +3828,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" s="6">
         <v>11</v>
@@ -3794,7 +3839,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B8" s="6">
         <v>5</v>
@@ -3805,7 +3850,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B9" s="6">
         <v>11</v>
@@ -3816,7 +3861,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
@@ -3827,7 +3872,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" s="6">
         <v>5</v>
@@ -3838,7 +3883,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B12" s="6">
         <v>83</v>
@@ -3849,7 +3894,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B13" s="6">
         <v>6</v>
@@ -3860,7 +3905,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B14" s="6">
         <v>6</v>
@@ -3871,7 +3916,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B15" s="6">
         <v>6</v>
@@ -3882,7 +3927,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -3904,7 +3949,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B18" s="6">
         <v>84</v>
@@ -3915,7 +3960,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B19" s="6">
         <v>5</v>
@@ -3949,12 +3994,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>52</v>
@@ -3965,7 +4010,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3976,7 +4021,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3987,7 +4032,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -3998,7 +4043,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4009,7 +4054,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -4020,7 +4065,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -4031,7 +4076,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -4042,7 +4087,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -4053,7 +4098,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12">
         <v>14</v>
@@ -4064,7 +4109,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -4075,12 +4120,12 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B15">
         <v>32</v>
@@ -4091,7 +4136,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -4102,7 +4147,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -4113,7 +4158,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -4124,7 +4169,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B19">
         <v>28.999999999999901</v>
@@ -4135,7 +4180,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -4146,7 +4191,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4157,7 +4202,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -4168,7 +4213,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4179,12 +4224,12 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B25">
         <v>73</v>
@@ -4195,7 +4240,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4206,7 +4251,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B27">
         <v>17</v>
@@ -4217,7 +4262,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -4228,7 +4273,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -4239,7 +4284,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -4255,7 +4300,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B32">
         <v>79</v>
@@ -4266,7 +4311,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B33">
         <v>17</v>
@@ -4277,12 +4322,12 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B35">
         <v>45</v>
@@ -4293,7 +4338,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B36">
         <v>22</v>
@@ -4304,7 +4349,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B37">
         <v>34</v>
@@ -4315,12 +4360,12 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B39">
         <v>17</v>
@@ -4331,7 +4376,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B40">
         <v>43</v>
@@ -4342,7 +4387,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B41">
         <v>41</v>
@@ -4358,10 +4403,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C025BF-418D-3C41-90DC-4C476FEE0423}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4376,12 +4421,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>59</v>
@@ -4392,7 +4437,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4403,7 +4448,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -4414,7 +4459,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -4425,7 +4470,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4436,7 +4481,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -4447,77 +4492,88 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>103</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10">
-        <v>38</v>
-      </c>
-      <c r="C10">
-        <v>28</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B11">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C12">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>108</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>72</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17">
         <v>97</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>23</v>
       </c>
     </row>
